--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4087,4 +4088,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4486,4 +4487,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4771,4 +4772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4780,7 +4781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4791,17 +4792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4811,14 +4832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.87</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4827,14 +4870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.92</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4843,14 +4908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.83</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4859,13 +4946,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>18.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5293,7 +5294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5304,17 +5305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5324,14 +5345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5340,14 +5383,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.87</v>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5356,14 +5421,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.92</v>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5372,14 +5459,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.83</v>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5388,13 +5497,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>69</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>18.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5654,7 +5655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5665,17 +5666,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5685,14 +5706,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5701,14 +5744,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5717,14 +5782,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5733,14 +5820,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.92</v>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5749,14 +5858,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>10.83</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="7">
@@ -5765,13 +6012,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>18.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>1.87</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.92</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>10.83</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>69</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>18.32</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1448</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -846,6 +863,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2001,7 +2264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3367,7 +3630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
+++ b/数据整理/stocks/A股/深证主板/000066-中国长城.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.92</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>10.83</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2706 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>69</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>18.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7219</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4645</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5443</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5240</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1757</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>200011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城景气行业龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002924</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商瑞鑫定期开放债券</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>64.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004763</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004764</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>52.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +3315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +3366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>159638</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>嘉实中证高端装备细分50ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>17.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1429</t>
+          <t>0.4536</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +3404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1426</t>
+          <t>0.2751</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -749,12 +3442,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -764,21 +3457,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.28</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1426</t>
+          <t>0.1604</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +3480,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0447</t>
+          <t>0.1601</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +3518,302 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>76.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0174</t>
+          <t>0.1601</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -929,26 +3888,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1482</t>
+          <t>0.1429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -957,32 +3916,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.43</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1448</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -995,36 +3954,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>78.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.1426</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1043,26 +4002,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.0447</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1081,26 +4040,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1109,6 +4068,252 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1468,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2264,7 +5469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,7 +5867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3628,2680 +6833,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160630</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华中证国防指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>70.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3860</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512710</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证军工龙头ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.7219</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4645</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2510</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001224</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮新思路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7596</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001809</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6075</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159998</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5660</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004616</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5443</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5240</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001227</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中邮信息产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>17.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>81.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4751</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000654</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商新锐产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>84.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4668</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>570005</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺德成长优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>64.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4296</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512670</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证国防ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4185</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3863</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008980</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.93</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3795</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>630008</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商策略精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.72</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3378</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512720</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰中证计算机主题ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3366</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2993</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501019</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰国证航天军工指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.2594</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>630009</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>17.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>671010</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1757</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>630011</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商主题精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1568</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1395</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008961</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华商科技创新混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1374</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008981</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中邮科技创新精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.02</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004636</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1094</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001413</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中融鑫起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1089</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004423</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华商研究精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1046</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1045</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0916</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>165523</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>信诚中证信息安全指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001414</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中融鑫起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>630109</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0616</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>77.64</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0569</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>003561</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001279</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中海积极增利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>84.02</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007152</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>诺德策略精选混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>62.51</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>200011</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>长城景气行业龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>001723</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华商新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007423</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002924</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>华商瑞鑫定期开放债券</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>64.87</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>161718</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>招商沪深300高贝塔指数</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>004763</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>004764</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>011060</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>西部利得策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>003562</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>诺德成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>52.38</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>